--- a/Informaciq .xlsx
+++ b/Informaciq .xlsx
@@ -39,7 +39,7 @@
     <t>XXX</t>
   </si>
   <si>
-    <t>Изобразяване на пулевете на играчите извън дъската</t>
+    <t>Изобразяване на пуловете на играчите извън дъската</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E838"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -507,10 +507,10 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
